--- a/src/data/output/Capgemini_Cloud_Resource_Data_Deviation_Analysis.xlsx
+++ b/src/data/output/Capgemini_Cloud_Resource_Data_Deviation_Analysis.xlsx
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-04 22:56:55</t>
+          <t>2026-02-05 16:05:07</t>
         </is>
       </c>
     </row>
